--- a/InfNst_SobotaJakub200816_1.xlsx
+++ b/InfNst_SobotaJakub200816_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15345" windowHeight="24450"/>
+    <workbookView windowWidth="18345" windowHeight="17250"/>
   </bookViews>
   <sheets>
     <sheet name="1 projekt" sheetId="3" r:id="rId1"/>
@@ -548,7 +548,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,12 +756,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1025,7 @@
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1480,8 +1474,8 @@
   <sheetPr/>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1913,11 +1907,11 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="33" ht="25.5" spans="1:4">
@@ -1991,7 +1985,7 @@
       <c r="C37" s="16"/>
       <c r="D37" s="15">
         <f>SUM(D30:D36)</f>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2093,11 +2087,11 @@
         <v>0.3</v>
       </c>
       <c r="C45" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="11">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2114,11 +2108,11 @@
         <v>1.2</v>
       </c>
       <c r="C47" s="10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D47" s="11">
         <f t="shared" si="5"/>
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="48" ht="25.5" spans="1:4">
@@ -2185,11 +2179,11 @@
         <v>0.4</v>
       </c>
       <c r="C52" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="11">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" ht="25.5" spans="1:4">
@@ -2200,11 +2194,11 @@
         <v>0.1</v>
       </c>
       <c r="C53" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="11">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="25.5" spans="1:4">
@@ -2215,11 +2209,11 @@
         <v>0.6</v>
       </c>
       <c r="C54" s="10">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="D54" s="11">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="55" ht="38.25" spans="1:4">
@@ -2230,11 +2224,11 @@
         <v>0.2</v>
       </c>
       <c r="C55" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" ht="25.5" spans="1:4">
@@ -2245,11 +2239,11 @@
         <v>0.2</v>
       </c>
       <c r="C56" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="11">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2278,7 +2272,7 @@
       <c r="C58" s="19"/>
       <c r="D58" s="15">
         <f>SUM(D40:D57)</f>
-        <v>10.5</v>
+        <v>8.956</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2292,7 +2286,7 @@
       <c r="C59" s="22"/>
       <c r="D59" s="21">
         <f>D58+D37+D28</f>
-        <v>19</v>
+        <v>17.436</v>
       </c>
     </row>
     <row r="60" spans="1:4">
